--- a/data/trans_dic/P12C1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12C1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza tareas del hogar (Siempre yo y habitualmente yo)</t>
+          <t>Población que realiza tareas del hogar (Siempre yo y habitualmente yo) (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,67 +546,85 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1</t>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,27 +657,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -662,17 +687,32 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
           <t>7,99%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,99%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25,93%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24,02%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,37; 12,4</t>
+          <t>2,78; 14,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 10,69</t>
+          <t>2,7; 13,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 13,87</t>
+          <t>15,23; 35,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,4; 22,41</t>
+          <t>12,14; 27,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,4; 13,82</t>
+          <t>5,59; 14,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 16,2</t>
+          <t>5,4; 16,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,97; 15,82</t>
+          <t>20,61; 37,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,74; 10,58</t>
+          <t>21,68; 37,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,84; 12,5</t>
+          <t>5,29; 11,99</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 12,23</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19,72; 32,55</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>18,84; 30,09</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>54,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>60,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>49,64%</t>
+          <t>49,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,42%</t>
+          <t>33,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>67,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>83,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>27,69%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20,66%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>60,51%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>70,7%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,21; 22,4</t>
+          <t>5,17; 13,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 13,29</t>
+          <t>4,13; 15,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 15,41</t>
+          <t>43,48; 63,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,32; 47,27</t>
+          <t>49,28; 71,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,81; 56,44</t>
+          <t>43,2; 56,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,69; 40,85</t>
+          <t>26,35; 41,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,41; 31,48</t>
+          <t>60,19; 75,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,23; 32,48</t>
+          <t>75,75; 88,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,99; 26,2</t>
+          <t>22,93; 32,4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15,71; 26,25</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>53,35; 66,56</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>63,03; 77,41</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>59,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>50,04%</t>
+          <t>61,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>50,27%</t>
+          <t>50,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>49,62%</t>
+          <t>49,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>82,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>87,92%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>31,07%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>30,26%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>70,38%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>75,1%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,49; 16,94</t>
+          <t>7,4; 14,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,5; 15,25</t>
+          <t>8,89; 18,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,07; 18,36</t>
+          <t>51,43; 66,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>44,49; 55,93</t>
+          <t>53,63; 68,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,18; 55,54</t>
+          <t>45,27; 55,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,19; 55,87</t>
+          <t>43,54; 56,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,59; 35,64</t>
+          <t>76,97; 87,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,1; 34,5</t>
+          <t>83,55; 91,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,08; 34,33</t>
+          <t>27,62; 34,96</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>26,17; 34,57</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>65,17; 75,06</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>70,37; 79,02</t>
         </is>
       </c>
     </row>
@@ -962,27 +1077,27 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>62,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>60,85%</t>
+          <t>64,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>61,69%</t>
+          <t>61,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -992,17 +1107,32 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>40,91%</t>
+          <t>83,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>43,01%</t>
+          <t>83,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>42,96%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>40,93%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>72,72%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>73,69%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,68; 26,29</t>
+          <t>18,31; 30,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,45; 29,95</t>
+          <t>13,84; 25,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,95; 25,96</t>
+          <t>56,37; 69,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,6; 65,95</t>
+          <t>55,97; 70,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,58; 66,33</t>
+          <t>56,15; 66,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,84; 71,62</t>
+          <t>58,15; 70,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,73; 44,51</t>
+          <t>78,09; 88,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,82; 47,06</t>
+          <t>78,17; 86,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,08; 45,75</t>
+          <t>39,04; 46,99</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>36,07; 45,95</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>67,85; 76,45</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>68,99; 77,31</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,45%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>58,7%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>60,07%</t>
+          <t>55,85%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>66,52%</t>
+          <t>66,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>62,05%</t>
+          <t>61,78%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>38,54%</t>
+          <t>84,25%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>42,29%</t>
+          <t>83,34%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>41,97%</t>
+          <t>42,51%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>41,75%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>71,73%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>69,93%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,65; 24,2</t>
+          <t>12,54; 23,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,75; 23,33</t>
+          <t>14,17; 26,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,87; 26,12</t>
+          <t>51,54; 65,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>53,02; 66,77</t>
+          <t>48,84; 62,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>60,5; 72,46</t>
+          <t>61,24; 72,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>55,36; 69,12</t>
+          <t>55,73; 68,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,97; 43,06</t>
+          <t>78,13; 88,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,68; 46,7</t>
+          <t>76,28; 88,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>37,01; 47,48</t>
+          <t>38,13; 47,05</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>37,13; 46,85</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>67,0; 76,39</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>65,01; 74,32</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>54,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>55,48%</t>
+          <t>51,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>45,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>61,56%</t>
+          <t>61,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>38,03%</t>
+          <t>63,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>58,1%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>43,03%</t>
+          <t>30,37%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>43,04%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>59,75%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>55,04%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,75; 20,23</t>
+          <t>6,69; 15,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,67; 16,74</t>
+          <t>12,35; 26,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,77; 25,0</t>
+          <t>46,73; 63,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>49,38; 61,17</t>
+          <t>42,75; 59,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>36,29; 52,12</t>
+          <t>38,28; 52,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>51,9; 70,16</t>
+          <t>51,84; 71,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,79; 42,71</t>
+          <t>55,2; 71,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,0; 34,86</t>
+          <t>48,3; 67,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>36,31; 49,94</t>
+          <t>25,89; 35,29</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>36,53; 50,07</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>54,08; 66,27</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>48,69; 61,22</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>53,16%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>48,67%</t>
+          <t>53,46%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>47,78%</t>
+          <t>47,94%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>49,32%</t>
+          <t>49,28%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>69,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>71,9%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>30,89%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>31,83%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>61,47%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>62,9%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,27; 16,26</t>
+          <t>11,02; 15,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,04; 14,94</t>
+          <t>12,05; 16,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,96; 16,58</t>
+          <t>49,76; 56,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>46,15; 50,97</t>
+          <t>49,76; 56,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,83; 50,57</t>
+          <t>45,16; 50,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>45,98; 52,53</t>
+          <t>46,01; 52,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>30,11; 33,59</t>
+          <t>66,63; 72,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>29,2; 32,75</t>
+          <t>68,55; 74,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>29,72; 34,05</t>
+          <t>29,17; 32,72</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>29,51; 34,06</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>59,24; 63,72</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>60,45; 65,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza tareas del hogar (Siempre yo y habitualmente yo) (tasa de respuesta: 99,74%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>34580</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2713</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10377</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>87273</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>46969</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3638</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10911</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>137739</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>81549</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6352</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>21288</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>225012</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14098; 72061</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1134; 5480</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6632; 15369</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>56145; 129195</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>28756; 73424</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2019; 6190</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7945; 14320</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>102856; 179101</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>53985; 122447</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3902; 9719</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16189; 26723</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>176496; 281908</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>50294</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4192</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>26241</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>347958</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>255436</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15773</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>30790</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>415170</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>305730</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>19965</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>57030</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>763128</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>30340; 77519</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2041; 7464</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>21078; 30839</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>285740; 417410</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>223506; 291175</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>12437; 19446</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>27547; 34466</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>378378; 442386</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>253128; 357763</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15181; 25375</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>50276; 62724</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>680365; 835599</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>408.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>73075</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7830</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>35874</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>413704</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>357627</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>26646</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>45104</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>628891</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>430702</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>34477</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>80979</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1042596</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>50044; 97477</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5351; 11013</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>31101; 40273</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>360911; 461844</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>321507; 391079</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>23384; 30162</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>42023; 47827</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>597668; 651362</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>382940; 484734</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>29815; 39381</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>74989; 86363</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>976844; 1096928</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>149117</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>11042</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>35252</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>420386</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>406634</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>34147</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>44506</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>550269</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>555751</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>45189</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>79758</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>970655</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>116657; 194281</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8025; 14587</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>31789; 38926</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>367026; 461254</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>368767; 439045</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>30486; 37139</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>41618; 47130</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>517057; 575373</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>505053; 607887</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>39818; 50729</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>74419; 83851</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>908741; 1018254</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>271.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>83017</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8688</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>26199</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>273920</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>345075</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>30132</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>39101</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>429341</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>428092</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>38821</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>65300</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>703261</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>61670; 113460</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6264; 11873</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>23002; 29216</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>239546; 308434</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>315469; 373432</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>27178; 33387</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>36259; 41102</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>392997; 454380</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>383997; 473782</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>34530; 43563</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>61002; 69544</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>653762; 747429</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>55700</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>8434</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>25178</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>289313</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>315570</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>38574</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>39935</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>424814</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>371270</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>47009</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>65113</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>714127</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>35613; 83992</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>5752; 12174</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>21423; 29090</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>242128; 338596</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>264105; 362482</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>32477; 44732</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>34844; 44965</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>353168; 490745</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>316499; 431402</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>39903; 54692</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>58936; 72217</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>631785; 794372</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>508.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>587.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>847.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>541.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>810.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>977.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1033.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>679.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1318.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1564.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>445783</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>42900</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>159121</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1832554</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1727311</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>148912</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>210347</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2586224</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2173094</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>191812</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>369468</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>4418778</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>378080; 516165</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>36218; 50551</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>148963; 170318</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1705759; 1951441</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1627106; 1819092</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>139028; 158576</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>201067; 219334</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2465979; 2695074</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2052270; 2301508</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>177855; 205290</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>356079; 383012</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>4246441; 4575323</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>